--- a/chain_data/高效节能/高效节能20231116V0.3.xlsx
+++ b/chain_data/高效节能/高效节能20231116V0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17800"/>
+    <workbookView windowWidth="22050" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
